--- a/src/main/resources/template/exports-xlsx/stats_template.xlsx
+++ b/src/main/resources/template/exports-xlsx/stats_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Code</t>
   </si>
@@ -100,9 +100,6 @@
     <t>${stat.nbConfirm}</t>
   </si>
   <si>
-    <t>${stat.nbDesist}&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
     <t>Dernier type d'avis attribué</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>${headerLibelle}</t>
   </si>
   <si>
-    <t>&lt;jt:hideCols test="${hideHeaderLibelleSup}"&gt;${headerLibelleSup}&lt;/jt:hideCols&gt;</t>
-  </si>
-  <si>
     <t>&lt;jt:forEach items="${stats}" var="stat"&gt;${stat.cod}</t>
   </si>
   <si>
@@ -197,6 +191,21 @@
   </si>
   <si>
     <t>${footer.nbCandidatureCancel}</t>
+  </si>
+  <si>
+    <t>${footer.capaciteAccueil}</t>
+  </si>
+  <si>
+    <t>&lt;jt:hideCols test="${hideLibelleSup}"&gt;${headerLibelleSup}&lt;/jt:hideCols&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jt:hideCols test="${hideCapaciteAccueil}"&gt;Capacité d'accueil&lt;/jt:hideCols&gt;</t>
+  </si>
+  <si>
+    <t>${stat.nbDesist}</t>
+  </si>
+  <si>
+    <t>${stat.capaciteAccueil}&lt;/jt:forEach&gt;</t>
   </si>
 </sst>
 </file>
@@ -550,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -578,6 +587,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -594,12 +612,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,7 +926,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -928,7 +940,8 @@
     <col min="10" max="14" width="14.28515625" style="3" customWidth="1"/>
     <col min="15" max="17" width="13.28515625" style="3" customWidth="1"/>
     <col min="18" max="19" width="15.7109375" style="3" customWidth="1"/>
-    <col min="20" max="25" width="15.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="15.5703125" style="3" customWidth="1"/>
     <col min="26" max="26" width="16.140625" style="3" customWidth="1"/>
     <col min="27" max="27" width="25.140625" style="3" customWidth="1"/>
     <col min="28" max="28" width="14.5703125" style="3" customWidth="1"/>
@@ -943,39 +956,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="A1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="23"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -984,12 +1000,12 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -1016,16 +1032,16 @@
         <v>10</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -1033,22 +1049,23 @@
       <c r="S2" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>15</v>
@@ -1090,9 +1107,11 @@
         <v>27</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1102,62 +1121,66 @@
       <c r="AN3" s="4"/>
     </row>
     <row r="4" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="O4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="R4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="S4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="16" t="s">
-        <v>49</v>
+      <c r="T4" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:B1"/>

--- a/src/main/resources/template/exports-xlsx/stats_template.xlsx
+++ b/src/main/resources/template/exports-xlsx/stats_template.xlsx
@@ -926,7 +926,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
